--- a/exercisesLifeContingencies/annuities/amortization_scheme_annuity.xlsx
+++ b/exercisesLifeContingencies/annuities/amortization_scheme_annuity.xlsx
@@ -499,25 +499,25 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>128448.8862107166</v>
+        <v>27961.54044181079</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>128448.8862107166</v>
+        <v>27961.54044181079</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>128448886.2107166</v>
+        <v>27961540.44181079</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>128448886.2107166</v>
+        <v>27961540.44181079</v>
       </c>
     </row>
     <row r="3">
@@ -531,25 +531,25 @@
         <v>0.9962362848</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>27856.30116703453</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133586.8416591453</v>
+        <v>56936.30322651776</v>
       </c>
       <c r="G3" t="n">
         <v>996.2362848</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>27856301.16703453</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>133586841.6591453</v>
+        <v>56936303.22651776</v>
       </c>
     </row>
     <row r="4">
@@ -563,25 +563,25 @@
         <v>0.9921961385071302</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>27743.33245307562</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>138930.3153255111</v>
+        <v>86957.08780865409</v>
       </c>
       <c r="G4" t="n">
         <v>992.1961385071302</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>27743332.45307562</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>138930315.3255111</v>
+        <v>86957087.80865408</v>
       </c>
     </row>
     <row r="5">
@@ -595,25 +595,25 @@
         <v>0.9878157693649732</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>27620.85058415714</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>144487.5279385315</v>
+        <v>118056.2219051574</v>
       </c>
       <c r="G5" t="n">
         <v>987.8157693649732</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>27620850.58415714</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>144487527.9385315</v>
+        <v>118056221.9051574</v>
       </c>
     </row>
     <row r="6">
@@ -627,25 +627,25 @@
         <v>0.9830845454281776</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27488.55827470916</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>150267.0290560728</v>
+        <v>150267.0290560729</v>
       </c>
       <c r="G6" t="n">
         <v>983.0845454281775</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>27488558.27470917</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>150267029.0560728</v>
+        <v>150267029.0560729</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>9780.024666697915</v>
       </c>
       <c r="F7" t="n">
-        <v>146497.6855516178</v>
+        <v>146497.6855516179</v>
       </c>
       <c r="G7" t="n">
         <v>978.0024666697914</v>
@@ -677,7 +677,7 @@
         <v>9780024.666697914</v>
       </c>
       <c r="J7" t="n">
-        <v>146497685.5516178</v>
+        <v>146497685.5516179</v>
       </c>
     </row>
     <row r="8">
@@ -697,7 +697,7 @@
         <v>9725.907970139438</v>
       </c>
       <c r="F8" t="n">
-        <v>142631.6850035431</v>
+        <v>142631.6850035432</v>
       </c>
       <c r="G8" t="n">
         <v>972.5907970139439</v>
@@ -709,7 +709,7 @@
         <v>9725907.970139438</v>
       </c>
       <c r="J8" t="n">
-        <v>142631685.0035431</v>
+        <v>142631685.0035432</v>
       </c>
     </row>
     <row r="9">
@@ -729,7 +729,7 @@
         <v>9668.495364480908</v>
       </c>
       <c r="F9" t="n">
-        <v>138668.4570392039</v>
+        <v>138668.457039204</v>
       </c>
       <c r="G9" t="n">
         <v>966.8495364480908</v>
@@ -741,7 +741,7 @@
         <v>9668495.364480909</v>
       </c>
       <c r="J9" t="n">
-        <v>138668457.0392039</v>
+        <v>138668457.039204</v>
       </c>
     </row>
     <row r="10">
@@ -773,7 +773,7 @@
         <v>9607467.891353469</v>
       </c>
       <c r="J10" t="n">
-        <v>134607727.4294186</v>
+        <v>134607727.4294187</v>
       </c>
     </row>
     <row r="11">
@@ -889,7 +889,7 @@
         <v>9321.468061833786</v>
       </c>
       <c r="F14" t="n">
-        <v>117393.1371324016</v>
+        <v>117393.1371324017</v>
       </c>
       <c r="G14" t="n">
         <v>932.1468061833787</v>
@@ -901,7 +901,7 @@
         <v>9321468.061833786</v>
       </c>
       <c r="J14" t="n">
-        <v>117393137.1324016</v>
+        <v>117393137.1324017</v>
       </c>
     </row>
     <row r="15">
@@ -921,7 +921,7 @@
         <v>9235.136514493704</v>
       </c>
       <c r="F15" t="n">
-        <v>112853.726103204</v>
+        <v>112853.7261032041</v>
       </c>
       <c r="G15" t="n">
         <v>923.5136514493705</v>
@@ -933,7 +933,7 @@
         <v>9235136.514493704</v>
       </c>
       <c r="J15" t="n">
-        <v>112853726.103204</v>
+        <v>112853726.1032041</v>
       </c>
     </row>
     <row r="16">
@@ -953,7 +953,7 @@
         <v>9141.043633480547</v>
       </c>
       <c r="F16" t="n">
-        <v>108226.8315138516</v>
+        <v>108226.8315138517</v>
       </c>
       <c r="G16" t="n">
         <v>914.1043633480547</v>
@@ -965,7 +965,7 @@
         <v>9141043.633480547</v>
       </c>
       <c r="J16" t="n">
-        <v>108226831.5138516</v>
+        <v>108226831.5138517</v>
       </c>
     </row>
     <row r="17">
@@ -1017,7 +1017,7 @@
         <v>8927.234838985862</v>
       </c>
       <c r="F18" t="n">
-        <v>98730.59142008997</v>
+        <v>98730.59142009003</v>
       </c>
       <c r="G18" t="n">
         <v>892.7234838985862</v>
@@ -1029,7 +1029,7 @@
         <v>8927234.838985862</v>
       </c>
       <c r="J18" t="n">
-        <v>98730591.42008997</v>
+        <v>98730591.42009003</v>
       </c>
     </row>
     <row r="19">
@@ -1049,7 +1049,7 @@
         <v>8805.179892571216</v>
       </c>
       <c r="F19" t="n">
-        <v>93874.63518432235</v>
+        <v>93874.63518432241</v>
       </c>
       <c r="G19" t="n">
         <v>880.5179892571216</v>
@@ -1061,7 +1061,7 @@
         <v>8805179.892571216</v>
       </c>
       <c r="J19" t="n">
-        <v>93874635.18432236</v>
+        <v>93874635.18432242</v>
       </c>
     </row>
     <row r="20">
@@ -1081,7 +1081,7 @@
         <v>8671.536105767473</v>
       </c>
       <c r="F20" t="n">
-        <v>88958.08448592777</v>
+        <v>88958.08448592783</v>
       </c>
       <c r="G20" t="n">
         <v>867.1536105767474</v>
@@ -1093,7 +1093,7 @@
         <v>8671536.105767474</v>
       </c>
       <c r="J20" t="n">
-        <v>88958084.48592778</v>
+        <v>88958084.48592784</v>
       </c>
     </row>
     <row r="21">
@@ -1113,7 +1113,7 @@
         <v>8524.815003448153</v>
       </c>
       <c r="F21" t="n">
-        <v>83991.59286191674</v>
+        <v>83991.5928619168</v>
       </c>
       <c r="G21" t="n">
         <v>852.4815003448155</v>
@@ -1125,7 +1125,7 @@
         <v>8524815.003448153</v>
       </c>
       <c r="J21" t="n">
-        <v>83991592.86191674</v>
+        <v>83991592.8619168</v>
       </c>
     </row>
     <row r="22">
@@ -1145,7 +1145,7 @@
         <v>8362.996512385023</v>
       </c>
       <c r="F22" t="n">
-        <v>78988.26006400838</v>
+        <v>78988.26006400844</v>
       </c>
       <c r="G22" t="n">
         <v>836.2996512385024</v>
@@ -1157,7 +1157,7 @@
         <v>8362996.512385024</v>
       </c>
       <c r="J22" t="n">
-        <v>78988260.06400838</v>
+        <v>78988260.06400844</v>
       </c>
     </row>
     <row r="23">
@@ -1177,7 +1177,7 @@
         <v>8184.698477133335</v>
       </c>
       <c r="F23" t="n">
-        <v>73963.09198943539</v>
+        <v>73963.09198943544</v>
       </c>
       <c r="G23" t="n">
         <v>818.4698477133335</v>
@@ -1189,7 +1189,7 @@
         <v>8184698.477133336</v>
       </c>
       <c r="J23" t="n">
-        <v>73963091.98943539</v>
+        <v>73963091.98943545</v>
       </c>
     </row>
     <row r="24">
@@ -1209,7 +1209,7 @@
         <v>7988.751381412722</v>
       </c>
       <c r="F24" t="n">
-        <v>68932.8642876001</v>
+        <v>68932.86428760015</v>
       </c>
       <c r="G24" t="n">
         <v>798.8751381412721</v>
@@ -1221,7 +1221,7 @@
         <v>7988751.381412722</v>
       </c>
       <c r="J24" t="n">
-        <v>68932864.2876001</v>
+        <v>68932864.28760016</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>7774.092029250634</v>
       </c>
       <c r="F25" t="n">
-        <v>63916.08682985346</v>
+        <v>63916.08682985354</v>
       </c>
       <c r="G25" t="n">
         <v>777.4092029250635</v>
@@ -1253,7 +1253,7 @@
         <v>7774092.029250635</v>
       </c>
       <c r="J25" t="n">
-        <v>63916086.82985346</v>
+        <v>63916086.82985353</v>
       </c>
     </row>
     <row r="26">
@@ -1273,7 +1273,7 @@
         <v>7539.550905195608</v>
       </c>
       <c r="F26" t="n">
-        <v>58933.17939785199</v>
+        <v>58933.17939785207</v>
       </c>
       <c r="G26" t="n">
         <v>753.9550905195608</v>
@@ -1285,7 +1285,7 @@
         <v>7539550.905195608</v>
       </c>
       <c r="J26" t="n">
-        <v>58933179.397852</v>
+        <v>58933179.39785206</v>
       </c>
     </row>
     <row r="27">
@@ -1305,7 +1305,7 @@
         <v>7283.107934824618</v>
       </c>
       <c r="F27" t="n">
-        <v>54007.39863894146</v>
+        <v>54007.39863894153</v>
       </c>
       <c r="G27" t="n">
         <v>728.3107934824618</v>
@@ -1317,7 +1317,7 @@
         <v>7283107.934824618</v>
       </c>
       <c r="J27" t="n">
-        <v>54007398.63894146</v>
+        <v>54007398.63894153</v>
       </c>
     </row>
     <row r="28">
@@ -1337,7 +1337,7 @@
         <v>7002.211447559879</v>
       </c>
       <c r="F28" t="n">
-        <v>49165.48313693924</v>
+        <v>49165.48313693931</v>
       </c>
       <c r="G28" t="n">
         <v>700.221144755988</v>
@@ -1349,7 +1349,7 @@
         <v>7002211.447559879</v>
       </c>
       <c r="J28" t="n">
-        <v>49165483.13693924</v>
+        <v>49165483.13693932</v>
       </c>
     </row>
     <row r="29">
@@ -1369,7 +1369,7 @@
         <v>6696.117205576809</v>
       </c>
       <c r="F29" t="n">
-        <v>44435.98525684</v>
+        <v>44435.98525684007</v>
       </c>
       <c r="G29" t="n">
         <v>669.6117205576809</v>
@@ -1381,7 +1381,7 @@
         <v>6696117.205576809</v>
       </c>
       <c r="J29" t="n">
-        <v>44435985.25684001</v>
+        <v>44435985.25684007</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1401,7 @@
         <v>6365.037848356865</v>
       </c>
       <c r="F30" t="n">
-        <v>39848.38681875674</v>
+        <v>39848.38681875682</v>
       </c>
       <c r="G30" t="n">
         <v>636.5037848356865</v>
@@ -1413,7 +1413,7 @@
         <v>6365037.848356864</v>
       </c>
       <c r="J30" t="n">
-        <v>39848386.81875674</v>
+        <v>39848386.81875682</v>
       </c>
     </row>
     <row r="31">
@@ -1433,7 +1433,7 @@
         <v>6009.611294188227</v>
       </c>
       <c r="F31" t="n">
-        <v>35432.71099731879</v>
+        <v>35432.71099731886</v>
       </c>
       <c r="G31" t="n">
         <v>600.9611294188227</v>
@@ -1445,7 +1445,7 @@
         <v>6009611.294188227</v>
       </c>
       <c r="J31" t="n">
-        <v>35432710.99731879</v>
+        <v>35432710.99731886</v>
       </c>
     </row>
     <row r="32">
@@ -1465,7 +1465,7 @@
         <v>5632.17657452574</v>
       </c>
       <c r="F32" t="n">
-        <v>31217.8428626858</v>
+        <v>31217.84286268588</v>
       </c>
       <c r="G32" t="n">
         <v>563.217657452574</v>
@@ -1477,7 +1477,7 @@
         <v>5632176.57452574</v>
       </c>
       <c r="J32" t="n">
-        <v>31217842.8626858</v>
+        <v>31217842.86268588</v>
       </c>
     </row>
     <row r="33">
@@ -1497,7 +1497,7 @@
         <v>5235.816959098722</v>
       </c>
       <c r="F33" t="n">
-        <v>27230.73961809451</v>
+        <v>27230.73961809459</v>
       </c>
       <c r="G33" t="n">
         <v>523.5816959098721</v>
@@ -1509,7 +1509,7 @@
         <v>5235816.959098722</v>
       </c>
       <c r="J33" t="n">
-        <v>27230739.61809452</v>
+        <v>27230739.61809459</v>
       </c>
     </row>
     <row r="34">
@@ -1529,7 +1529,7 @@
         <v>4822.977799409126</v>
       </c>
       <c r="F34" t="n">
-        <v>23496.99140340917</v>
+        <v>23496.99140340925</v>
       </c>
       <c r="G34" t="n">
         <v>482.2977799409127</v>
@@ -1541,7 +1541,7 @@
         <v>4822977.799409127</v>
       </c>
       <c r="J34" t="n">
-        <v>23496991.40340917</v>
+        <v>23496991.40340925</v>
       </c>
     </row>
     <row r="35">
@@ -1561,7 +1561,7 @@
         <v>4396.423406541302</v>
       </c>
       <c r="F35" t="n">
-        <v>20040.44765300423</v>
+        <v>20040.44765300432</v>
       </c>
       <c r="G35" t="n">
         <v>439.6423406541302</v>
@@ -1573,7 +1573,7 @@
         <v>4396423.406541302</v>
       </c>
       <c r="J35" t="n">
-        <v>20040447.65300423</v>
+        <v>20040447.65300432</v>
       </c>
     </row>
     <row r="36">
@@ -1593,7 +1593,7 @@
         <v>3961.04448341711</v>
       </c>
       <c r="F36" t="n">
-        <v>16881.02107570729</v>
+        <v>16881.02107570738</v>
       </c>
       <c r="G36" t="n">
         <v>396.104448341711</v>
@@ -1605,7 +1605,7 @@
         <v>3961044.483417111</v>
       </c>
       <c r="J36" t="n">
-        <v>16881021.07570729</v>
+        <v>16881021.07570738</v>
       </c>
     </row>
     <row r="37">
@@ -1625,7 +1625,7 @@
         <v>3525.559240509453</v>
       </c>
       <c r="F37" t="n">
-        <v>14030.70267822613</v>
+        <v>14030.70267822622</v>
       </c>
       <c r="G37" t="n">
         <v>352.5559240509453</v>
@@ -1637,7 +1637,7 @@
         <v>3525559.240509453</v>
       </c>
       <c r="J37" t="n">
-        <v>14030702.67822613</v>
+        <v>14030702.67822622</v>
       </c>
     </row>
     <row r="38">
@@ -1657,7 +1657,7 @@
         <v>3097.729011917741</v>
       </c>
       <c r="F38" t="n">
-        <v>11494.20177343743</v>
+        <v>11494.20177343753</v>
       </c>
       <c r="G38" t="n">
         <v>309.7729011917742</v>
@@ -1669,7 +1669,7 @@
         <v>3097729.011917742</v>
       </c>
       <c r="J38" t="n">
-        <v>11494201.77343743</v>
+        <v>11494201.77343753</v>
       </c>
     </row>
     <row r="39">
@@ -1689,7 +1689,7 @@
         <v>2682.338181064376</v>
       </c>
       <c r="F39" t="n">
-        <v>9271.631663310554</v>
+        <v>9271.631663310656</v>
       </c>
       <c r="G39" t="n">
         <v>268.2338181064376</v>
@@ -1701,7 +1701,7 @@
         <v>2682338.181064377</v>
       </c>
       <c r="J39" t="n">
-        <v>9271631.663310554</v>
+        <v>9271631.663310656</v>
       </c>
     </row>
     <row r="40">
@@ -1721,7 +1721,7 @@
         <v>2284.915369164333</v>
       </c>
       <c r="F40" t="n">
-        <v>7357.581560678644</v>
+        <v>7357.581560678749</v>
       </c>
       <c r="G40" t="n">
         <v>228.4915369164333</v>
@@ -1733,7 +1733,7 @@
         <v>2284915.369164333</v>
       </c>
       <c r="J40" t="n">
-        <v>7357581.560678644</v>
+        <v>7357581.560678749</v>
       </c>
     </row>
     <row r="41">
@@ -1753,7 +1753,7 @@
         <v>1911.52079584829</v>
       </c>
       <c r="F41" t="n">
-        <v>5740.3640272575</v>
+        <v>5740.364027257609</v>
       </c>
       <c r="G41" t="n">
         <v>191.152079584829</v>
@@ -1765,7 +1765,7 @@
         <v>1911520.79584829</v>
       </c>
       <c r="J41" t="n">
-        <v>5740364.0272575</v>
+        <v>5740364.027257609</v>
       </c>
     </row>
     <row r="42">
@@ -1785,7 +1785,7 @@
         <v>1567.470442919816</v>
       </c>
       <c r="F42" t="n">
-        <v>4402.508145427985</v>
+        <v>4402.508145428099</v>
       </c>
       <c r="G42" t="n">
         <v>156.7470442919816</v>
@@ -1797,7 +1797,7 @@
         <v>1567470.442919816</v>
       </c>
       <c r="J42" t="n">
-        <v>4402508.145427985</v>
+        <v>4402508.145428099</v>
       </c>
     </row>
     <row r="43">
@@ -1817,7 +1817,7 @@
         <v>1260.100365583896</v>
       </c>
       <c r="F43" t="n">
-        <v>3318.508105661208</v>
+        <v>3318.508105661327</v>
       </c>
       <c r="G43" t="n">
         <v>126.0100365583896</v>
@@ -1829,7 +1829,7 @@
         <v>1260100.365583896</v>
       </c>
       <c r="J43" t="n">
-        <v>3318508.105661208</v>
+        <v>3318508.105661327</v>
       </c>
     </row>
     <row r="44">
@@ -1849,7 +1849,7 @@
         <v>995.3644635515748</v>
       </c>
       <c r="F44" t="n">
-        <v>2455.883966336082</v>
+        <v>2455.883966336205</v>
       </c>
       <c r="G44" t="n">
         <v>99.53644635515748</v>
@@ -1861,7 +1861,7 @@
         <v>995364.4635515747</v>
       </c>
       <c r="J44" t="n">
-        <v>2455883.966336082</v>
+        <v>2455883.966336205</v>
       </c>
     </row>
     <row r="45">
@@ -1881,7 +1881,7 @@
         <v>774.0069743862811</v>
       </c>
       <c r="F45" t="n">
-        <v>1780.112350603245</v>
+        <v>1780.112350603372</v>
       </c>
       <c r="G45" t="n">
         <v>77.40069743862811</v>
@@ -1893,7 +1893,7 @@
         <v>774006.9743862811</v>
       </c>
       <c r="J45" t="n">
-        <v>1780112.350603245</v>
+        <v>1780112.350603372</v>
       </c>
     </row>
     <row r="46">
@@ -1913,7 +1913,7 @@
         <v>592.306710719741</v>
       </c>
       <c r="F46" t="n">
-        <v>1259.010133907633</v>
+        <v>1259.010133907766</v>
       </c>
       <c r="G46" t="n">
         <v>59.2306710719741</v>
@@ -1925,7 +1925,7 @@
         <v>592306.7107197409</v>
       </c>
       <c r="J46" t="n">
-        <v>1259010.133907633</v>
+        <v>1259010.133907766</v>
       </c>
     </row>
     <row r="47">
@@ -1945,7 +1945,7 @@
         <v>445.4792888018104</v>
       </c>
       <c r="F47" t="n">
-        <v>863.8912504621285</v>
+        <v>863.8912504622665</v>
       </c>
       <c r="G47" t="n">
         <v>44.54792888018103</v>
@@ -1957,7 +1957,7 @@
         <v>445479.2888018104</v>
       </c>
       <c r="J47" t="n">
-        <v>863891.2504621284</v>
+        <v>863891.2504622665</v>
       </c>
     </row>
     <row r="48">
@@ -1977,7 +1977,7 @@
         <v>328.7403248001982</v>
       </c>
       <c r="F48" t="n">
-        <v>569.7065756804154</v>
+        <v>569.706575680559</v>
       </c>
       <c r="G48" t="n">
         <v>32.87403248001982</v>
@@ -1989,7 +1989,7 @@
         <v>328740.3248001982</v>
       </c>
       <c r="J48" t="n">
-        <v>569706.5756804154</v>
+        <v>569706.575680559</v>
       </c>
     </row>
     <row r="49">
@@ -2009,7 +2009,7 @@
         <v>237.9433528084659</v>
       </c>
       <c r="F49" t="n">
-        <v>354.5514858991662</v>
+        <v>354.5514858993154</v>
       </c>
       <c r="G49" t="n">
         <v>23.79433528084659</v>
@@ -2021,7 +2021,7 @@
         <v>237943.3528084659</v>
       </c>
       <c r="J49" t="n">
-        <v>354551.4858991661</v>
+        <v>354551.4858993154</v>
       </c>
     </row>
     <row r="50">
@@ -2041,7 +2041,7 @@
         <v>168.5166283408751</v>
       </c>
       <c r="F50" t="n">
-        <v>200.2169169942578</v>
+        <v>200.216916994413</v>
       </c>
       <c r="G50" t="n">
         <v>16.85166283408751</v>
@@ -2053,7 +2053,7 @@
         <v>168516.6283408751</v>
       </c>
       <c r="J50" t="n">
-        <v>200216.9169942578</v>
+        <v>200216.916994413</v>
       </c>
     </row>
     <row r="51">
@@ -2073,7 +2073,7 @@
         <v>116.7389639870945</v>
       </c>
       <c r="F51" t="n">
-        <v>91.48662968693361</v>
+        <v>91.48662968709507</v>
       </c>
       <c r="G51" t="n">
         <v>11.67389639870945</v>
@@ -2085,7 +2085,7 @@
         <v>116738.9639870945</v>
       </c>
       <c r="J51" t="n">
-        <v>91486.62968693361</v>
+        <v>91486.62968709508</v>
       </c>
     </row>
     <row r="52">
@@ -2105,7 +2105,7 @@
         <v>56.45572848824133</v>
       </c>
       <c r="F52" t="n">
-        <v>38.69036638616963</v>
+        <v>38.69036638633754</v>
       </c>
       <c r="G52" t="n">
         <v>5.645572848824133</v>
@@ -2117,7 +2117,7 @@
         <v>56455.72848824134</v>
       </c>
       <c r="J52" t="n">
-        <v>38690.36638616963</v>
+        <v>38690.36638633755</v>
       </c>
     </row>
     <row r="53">
@@ -2137,7 +2137,7 @@
         <v>25.19775452210728</v>
       </c>
       <c r="F53" t="n">
-        <v>15.04022651950913</v>
+        <v>15.04022651968376</v>
       </c>
       <c r="G53" t="n">
         <v>2.519775452210728</v>
@@ -2149,7 +2149,7 @@
         <v>25197.75452210728</v>
       </c>
       <c r="J53" t="n">
-        <v>15040.22651950913</v>
+        <v>15040.22651968376</v>
       </c>
     </row>
     <row r="54">
@@ -2169,7 +2169,7 @@
         <v>10.31300501482438</v>
       </c>
       <c r="F54" t="n">
-        <v>5.328830565465118</v>
+        <v>5.328830565646735</v>
       </c>
       <c r="G54" t="n">
         <v>1.031300501482438</v>
@@ -2181,7 +2181,7 @@
         <v>10313.00501482438</v>
       </c>
       <c r="J54" t="n">
-        <v>5328.830565465119</v>
+        <v>5328.830565646735</v>
       </c>
     </row>
     <row r="55">
@@ -2201,7 +2201,7 @@
         <v>3.827507015619735</v>
       </c>
       <c r="F55" t="n">
-        <v>1.714476772463988</v>
+        <v>1.71447677265287</v>
       </c>
       <c r="G55" t="n">
         <v>0.3827507015619735</v>
@@ -2213,7 +2213,7 @@
         <v>3827.507015619735</v>
       </c>
       <c r="J55" t="n">
-        <v>1714.476772463988</v>
+        <v>1714.47677265287</v>
       </c>
     </row>
     <row r="56">
@@ -2233,7 +2233,7 @@
         <v>1.275835671745662</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5072201716168856</v>
+        <v>0.5072201718133227</v>
       </c>
       <c r="G56" t="n">
         <v>0.1275835671745662</v>
@@ -2245,7 +2245,7 @@
         <v>1275.835671745662</v>
       </c>
       <c r="J56" t="n">
-        <v>507.2201716168856</v>
+        <v>507.2201718133227</v>
       </c>
     </row>
     <row r="57">
@@ -2265,7 +2265,7 @@
         <v>0.4252785572060261</v>
       </c>
       <c r="F57" t="n">
-        <v>0.102230421275535</v>
+        <v>0.1022304214798295</v>
       </c>
       <c r="G57" t="n">
         <v>0.04252785572060261</v>
@@ -2277,7 +2277,7 @@
         <v>425.2785572060261</v>
       </c>
       <c r="J57" t="n">
-        <v>102.230421275535</v>
+        <v>102.2304214798295</v>
       </c>
     </row>
     <row r="58">
@@ -2297,7 +2297,7 @@
         <v>0.1063196393015065</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.17495012330604e-09</v>
+        <v>-9.624838703814476e-10</v>
       </c>
       <c r="G58" t="n">
         <v>0.01063196393015065</v>
@@ -2309,7 +2309,7 @@
         <v>106.3196393015065</v>
       </c>
       <c r="J58" t="n">
-        <v>-1.17495012330604e-06</v>
+        <v>-9.624838703814476e-07</v>
       </c>
     </row>
     <row r="59">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.221948128238282e-09</v>
+        <v>-1.000983225196705e-09</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-1.221948128238282e-06</v>
+        <v>-1.000983225196705e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2390,11 +2390,6 @@
           <t>reserve</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2410,9 +2405,6 @@
         <v>128448886.2107166</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2424,16 +2416,13 @@
         <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104506839.5996621</v>
       </c>
       <c r="D3" t="n">
         <v>133586841.6591453</v>
       </c>
       <c r="E3" t="n">
-        <v>133586841.6591453</v>
-      </c>
-      <c r="F3" t="n">
-        <v>133586841.6591453</v>
+        <v>29080002.05948322</v>
       </c>
     </row>
     <row r="4">
@@ -2444,16 +2433,13 @@
         <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79716559.96993269</v>
       </c>
       <c r="D4" t="n">
         <v>138930315.3255111</v>
       </c>
       <c r="E4" t="n">
-        <v>138930315.3255111</v>
-      </c>
-      <c r="F4" t="n">
-        <v>138930315.3255111</v>
+        <v>59213755.35557841</v>
       </c>
     </row>
     <row r="5">
@@ -2464,16 +2450,13 @@
         <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>54052156.6175314</v>
       </c>
       <c r="D5" t="n">
         <v>144487527.9385316</v>
       </c>
       <c r="E5" t="n">
-        <v>144487527.9385316</v>
-      </c>
-      <c r="F5" t="n">
-        <v>144487527.9385316</v>
+        <v>90435371.32100019</v>
       </c>
     </row>
     <row r="6">
@@ -2484,16 +2467,13 @@
         <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>27488558.27470916</v>
       </c>
       <c r="D6" t="n">
         <v>150267029.0560728</v>
       </c>
       <c r="E6" t="n">
-        <v>150267029.0560728</v>
-      </c>
-      <c r="F6" t="n">
-        <v>150267029.0560728</v>
+        <v>122778470.7813637</v>
       </c>
     </row>
     <row r="7">
@@ -2512,9 +2492,6 @@
       <c r="E7" t="n">
         <v>156277710.2183158</v>
       </c>
-      <c r="F7" t="n">
-        <v>146497685.5516179</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2532,9 +2509,6 @@
       <c r="E8" t="n">
         <v>152357592.9736826</v>
       </c>
-      <c r="F8" t="n">
-        <v>142631685.0035431</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2552,9 +2526,6 @@
       <c r="E9" t="n">
         <v>148336952.4036849</v>
       </c>
-      <c r="F9" t="n">
-        <v>138668457.039204</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2572,9 +2543,6 @@
       <c r="E10" t="n">
         <v>144215195.3207722</v>
       </c>
-      <c r="F10" t="n">
-        <v>134607727.4294187</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2592,9 +2560,6 @@
       <c r="E11" t="n">
         <v>139992036.5265955</v>
       </c>
-      <c r="F11" t="n">
-        <v>130449423.6157026</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2612,9 +2577,6 @@
       <c r="E12" t="n">
         <v>135667400.5603307</v>
       </c>
-      <c r="F12" t="n">
-        <v>126193682.7753652</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2632,9 +2594,6 @@
       <c r="E13" t="n">
         <v>131241430.0863798</v>
       </c>
-      <c r="F13" t="n">
-        <v>121840966.5329188</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2652,9 +2611,6 @@
       <c r="E14" t="n">
         <v>126714605.1942356</v>
       </c>
-      <c r="F14" t="n">
-        <v>117393137.1324018</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2672,9 +2628,6 @@
       <c r="E15" t="n">
         <v>122088862.6176979</v>
       </c>
-      <c r="F15" t="n">
-        <v>112853726.1032042</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2692,9 +2645,6 @@
       <c r="E16" t="n">
         <v>117367875.1473323</v>
       </c>
-      <c r="F16" t="n">
-        <v>108226831.5138518</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2712,9 +2662,6 @@
       <c r="E17" t="n">
         <v>112555904.7744059</v>
       </c>
-      <c r="F17" t="n">
-        <v>103517140.6337269</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2732,9 +2679,6 @@
       <c r="E18" t="n">
         <v>107657826.259076</v>
       </c>
-      <c r="F18" t="n">
-        <v>98730591.42009018</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2752,9 +2696,6 @@
       <c r="E19" t="n">
         <v>102679815.0768938</v>
       </c>
-      <c r="F19" t="n">
-        <v>93874635.18432258</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2772,9 +2713,6 @@
       <c r="E20" t="n">
         <v>97629620.59169547</v>
       </c>
-      <c r="F20" t="n">
-        <v>88958084.485928</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2792,9 +2730,6 @@
       <c r="E21" t="n">
         <v>92516407.86536518</v>
       </c>
-      <c r="F21" t="n">
-        <v>83991592.86191702</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2812,9 +2747,6 @@
       <c r="E22" t="n">
         <v>87351256.57639368</v>
       </c>
-      <c r="F22" t="n">
-        <v>78988260.06400865</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2832,9 +2764,6 @@
       <c r="E23" t="n">
         <v>82147790.46656902</v>
       </c>
-      <c r="F23" t="n">
-        <v>73963091.98943569</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2852,9 +2781,6 @@
       <c r="E24" t="n">
         <v>76921615.66901311</v>
       </c>
-      <c r="F24" t="n">
-        <v>68932864.2876004</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2872,9 +2798,6 @@
       <c r="E25" t="n">
         <v>71690178.85910441</v>
       </c>
-      <c r="F25" t="n">
-        <v>63916086.82985377</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2892,9 +2815,6 @@
       <c r="E26" t="n">
         <v>66472730.30304793</v>
       </c>
-      <c r="F26" t="n">
-        <v>58933179.39785232</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2912,9 +2832,6 @@
       <c r="E27" t="n">
         <v>61290506.57376643</v>
       </c>
-      <c r="F27" t="n">
-        <v>54007398.63894182</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2932,9 +2849,6 @@
       <c r="E28" t="n">
         <v>56167694.58449947</v>
       </c>
-      <c r="F28" t="n">
-        <v>49165483.13693959</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2952,9 +2866,6 @@
       <c r="E29" t="n">
         <v>51132102.46241717</v>
       </c>
-      <c r="F29" t="n">
-        <v>44435985.25684036</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2972,9 +2883,6 @@
       <c r="E30" t="n">
         <v>46213424.66711399</v>
       </c>
-      <c r="F30" t="n">
-        <v>39848386.81875712</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2992,9 +2900,6 @@
       <c r="E31" t="n">
         <v>41442322.29150741</v>
       </c>
-      <c r="F31" t="n">
-        <v>35432710.99731918</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3012,9 +2917,6 @@
       <c r="E32" t="n">
         <v>36850019.43721195</v>
       </c>
-      <c r="F32" t="n">
-        <v>31217842.86268621</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3032,9 +2934,6 @@
       <c r="E33" t="n">
         <v>32466556.57719367</v>
       </c>
-      <c r="F33" t="n">
-        <v>27230739.61809494</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3052,9 +2951,6 @@
       <c r="E34" t="n">
         <v>28319969.20281875</v>
       </c>
-      <c r="F34" t="n">
-        <v>23496991.40340962</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3072,9 +2968,6 @@
       <c r="E35" t="n">
         <v>24436871.059546</v>
       </c>
-      <c r="F35" t="n">
-        <v>20040447.6530047</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3092,9 +2985,6 @@
       <c r="E36" t="n">
         <v>20842065.55912489</v>
       </c>
-      <c r="F36" t="n">
-        <v>16881021.07570779</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3112,9 +3002,6 @@
       <c r="E37" t="n">
         <v>17556261.9187361</v>
       </c>
-      <c r="F37" t="n">
-        <v>14030702.67822664</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3132,9 +3019,6 @@
       <c r="E38" t="n">
         <v>14591930.78535571</v>
       </c>
-      <c r="F38" t="n">
-        <v>11494201.77343797</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3152,9 +3036,6 @@
       <c r="E39" t="n">
         <v>11953969.84437549</v>
       </c>
-      <c r="F39" t="n">
-        <v>9271631.663311113</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3172,9 +3053,6 @@
       <c r="E40" t="n">
         <v>9642496.929843556</v>
       </c>
-      <c r="F40" t="n">
-        <v>7357581.560679223</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3192,9 +3070,6 @@
       <c r="E41" t="n">
         <v>7651884.823106393</v>
       </c>
-      <c r="F41" t="n">
-        <v>5740364.027258104</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3212,9 +3087,6 @@
       <c r="E42" t="n">
         <v>5969978.588348428</v>
       </c>
-      <c r="F42" t="n">
-        <v>4402508.145428612</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3232,9 +3104,6 @@
       <c r="E43" t="n">
         <v>4578608.471245757</v>
       </c>
-      <c r="F43" t="n">
-        <v>3318508.105661861</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3252,9 +3121,6 @@
       <c r="E44" t="n">
         <v>3451248.429888336</v>
       </c>
-      <c r="F44" t="n">
-        <v>2455883.966336761</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3272,9 +3138,6 @@
       <c r="E45" t="n">
         <v>2554119.324990231</v>
       </c>
-      <c r="F45" t="n">
-        <v>1780112.35060395</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3292,9 +3155,6 @@
       <c r="E46" t="n">
         <v>1851316.844628108</v>
       </c>
-      <c r="F46" t="n">
-        <v>1259010.133908367</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3312,9 +3172,6 @@
       <c r="E47" t="n">
         <v>1309370.539264702</v>
       </c>
-      <c r="F47" t="n">
-        <v>863891.2504628912</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3332,9 +3189,6 @@
       <c r="E48" t="n">
         <v>898446.9004814073</v>
       </c>
-      <c r="F48" t="n">
-        <v>569706.5756812091</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3352,9 +3206,6 @@
       <c r="E49" t="n">
         <v>592494.8387084574</v>
       </c>
-      <c r="F49" t="n">
-        <v>354551.4858999915</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3372,9 +3223,6 @@
       <c r="E50" t="n">
         <v>368733.5453359914</v>
       </c>
-      <c r="F50" t="n">
-        <v>200216.9169951164</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3392,9 +3240,6 @@
       <c r="E51" t="n">
         <v>208225.5936749209</v>
       </c>
-      <c r="F51" t="n">
-        <v>91486.62968782645</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3412,9 +3257,6 @@
       <c r="E52" t="n">
         <v>95146.09487533955</v>
       </c>
-      <c r="F52" t="n">
-        <v>38690.36638709821</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3432,9 +3274,6 @@
       <c r="E53" t="n">
         <v>40237.98104258214</v>
       </c>
-      <c r="F53" t="n">
-        <v>15040.22652047486</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3452,9 +3291,6 @@
       <c r="E54" t="n">
         <v>15641.83558129385</v>
       </c>
-      <c r="F54" t="n">
-        <v>5328.830566469465</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3472,9 +3308,6 @@
       <c r="E55" t="n">
         <v>5541.983789128249</v>
       </c>
-      <c r="F55" t="n">
-        <v>1714.476773508514</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3492,9 +3325,6 @@
       <c r="E56" t="n">
         <v>1783.055844448855</v>
       </c>
-      <c r="F56" t="n">
-        <v>507.2201727031929</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3512,9 +3342,6 @@
       <c r="E57" t="n">
         <v>527.5089796113208</v>
       </c>
-      <c r="F57" t="n">
-        <v>102.2304224052947</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3532,9 +3359,6 @@
       <c r="E58" t="n">
         <v>106.3196393015065</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3550,9 +3374,6 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
         <v>0</v>
       </c>
     </row>
